--- a/DATASET_DIST_FITTER_FUNCTION.xlsx
+++ b/DATASET_DIST_FITTER_FUNCTION.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABRAH\Box\boxx\Courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D09113-E9D2-42BA-A88A-8142055C2B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D40D2A4-322A-4D13-8386-205D7E0281AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDA89762-086B-425C-B09F-6DD91593E10F}"/>
+    <workbookView xWindow="1536" yWindow="1176" windowWidth="12492" windowHeight="11784" xr2:uid="{EDA89762-086B-425C-B09F-6DD91593E10F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Dataset 1</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Dataset 8</t>
+  </si>
+  <si>
+    <t>Dataset 9</t>
   </si>
 </sst>
 </file>
@@ -420,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C11F843-4266-4EB0-AF59-2CDD20DB155C}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,7 +434,7 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -459,8 +462,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -488,8 +494,11 @@
       <c r="I2">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -517,8 +526,11 @@
       <c r="I3">
         <v>170</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -546,8 +558,11 @@
       <c r="I4">
         <v>104</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -575,8 +590,11 @@
       <c r="I5">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -604,8 +622,11 @@
       <c r="I6">
         <v>227</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -633,8 +654,11 @@
       <c r="I7">
         <v>188</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -662,8 +686,11 @@
       <c r="I8">
         <v>269</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -691,8 +718,11 @@
       <c r="I9">
         <v>201</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -720,8 +750,11 @@
       <c r="I10">
         <v>77</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -749,8 +782,11 @@
       <c r="I11">
         <v>158</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -778,8 +814,11 @@
       <c r="I12">
         <v>269</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -807,8 +846,11 @@
       <c r="I13">
         <v>196</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -836,8 +878,11 @@
       <c r="I14">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -865,8 +910,11 @@
       <c r="I15">
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -894,8 +942,11 @@
       <c r="I16">
         <v>105</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -923,8 +974,11 @@
       <c r="I17">
         <v>282</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -952,8 +1006,11 @@
       <c r="I18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -981,8 +1038,11 @@
       <c r="I19">
         <v>238</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1010,8 +1070,11 @@
       <c r="I20">
         <v>101</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1039,8 +1102,11 @@
       <c r="I21">
         <v>265</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1068,8 +1134,11 @@
       <c r="I22">
         <v>292</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1097,8 +1166,11 @@
       <c r="I23">
         <v>179</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1126,8 +1198,11 @@
       <c r="I24">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1155,8 +1230,11 @@
       <c r="I25">
         <v>201</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1184,8 +1262,11 @@
       <c r="I26">
         <v>110</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1214,7 +1295,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1243,7 +1324,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1272,7 +1353,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1301,7 +1382,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1330,7 +1411,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>

--- a/DATASET_DIST_FITTER_FUNCTION.xlsx
+++ b/DATASET_DIST_FITTER_FUNCTION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABRAH\Box\boxx\Courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D40D2A4-322A-4D13-8386-205D7E0281AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC2C98F-3873-447A-8F26-35A1E2513097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1176" windowWidth="12492" windowHeight="11784" xr2:uid="{EDA89762-086B-425C-B09F-6DD91593E10F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EDA89762-086B-425C-B09F-6DD91593E10F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,36 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={5E9620A1-4C34-42DC-925A-827EA40FF3E2}</author>
+    <author>tc={44D16FAD-48E3-44FB-A11A-3B8C3DFA23FF}</author>
+  </authors>
+  <commentList>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{5E9620A1-4C34-42DC-925A-827EA40FF3E2}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Dataset for HW Module 7 (Analítica para la Confiabilidad y Simulación LCC/EQUIPO 1) </t>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="1" shapeId="0" xr:uid="{44D16FAD-48E3-44FB-A11A-3B8C3DFA23FF}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Dataset for HW Module 7 (Analítica para la Confiabilidad y Simulación LCC/TTR  
+EQUIPO 1) </t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Dataset 1</t>
   </si>
@@ -67,12 +95,30 @@
   <si>
     <t>Dataset 9</t>
   </si>
+  <si>
+    <t>Dataset 10</t>
+  </si>
+  <si>
+    <t>Dataset 11</t>
+  </si>
+  <si>
+    <t>Dataset 12</t>
+  </si>
+  <si>
+    <t>Dataset 13</t>
+  </si>
+  <si>
+    <t>Dataset 14</t>
+  </si>
+  <si>
+    <t>Dataset 15</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +132,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -95,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -103,12 +155,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -124,6 +265,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Abraham Nispel" id="{870069C5-5E9E-404F-9E1A-3C2A254456EF}" userId="S::AA_NP@3trk5p.onmicrosoft.com::557c8d44-ff3d-4fd0-8a84-a0dee54a84ce" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,20 +568,35 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="K1" dT="2023-10-11T22:28:26.68" personId="{870069C5-5E9E-404F-9E1A-3C2A254456EF}" id="{5E9620A1-4C34-42DC-925A-827EA40FF3E2}">
+    <text xml:space="preserve">Dataset for HW Module 7 (Analítica para la Confiabilidad y Simulación LCC/EQUIPO 1) </text>
+  </threadedComment>
+  <threadedComment ref="N1" dT="2023-10-11T22:34:59.73" personId="{870069C5-5E9E-404F-9E1A-3C2A254456EF}" id="{44D16FAD-48E3-44FB-A11A-3B8C3DFA23FF}">
+    <text xml:space="preserve">Dataset for HW Module 7 (Analítica para la Confiabilidad y Simulación LCC/TTR  
+EQUIPO 1) </text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C11F843-4266-4EB0-AF59-2CDD20DB155C}">
-  <dimension ref="A1:J49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C11F843-4266-4EB0-AF59-2CDD20DB155C}">
+  <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -465,8 +627,26 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -497,8 +677,26 @@
       <c r="J2">
         <v>148</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="4">
+        <v>4.9380766126344906E-2</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1.3737254671933999E-2</v>
+      </c>
+      <c r="M2" s="5">
+        <v>4.2033308983803908E-4</v>
+      </c>
+      <c r="N2" s="4">
+        <v>8.6971622984771603E-4</v>
+      </c>
+      <c r="O2" s="5">
+        <v>1.5934999600623931E-2</v>
+      </c>
+      <c r="P2" s="6">
+        <v>3.2631835833499698E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -529,8 +727,26 @@
       <c r="J3">
         <v>135</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="4">
+        <v>0.11430698915899631</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1.4851817509447637E-2</v>
+      </c>
+      <c r="M3" s="5">
+        <v>7.0405299881467279E-2</v>
+      </c>
+      <c r="N3" s="4">
+        <v>3.069883734282796E-2</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.11870969213834609</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0.38172796253168795</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -561,8 +777,26 @@
       <c r="J4">
         <v>233</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="4">
+        <v>0.2621087290333603</v>
+      </c>
+      <c r="L4" s="5">
+        <v>9.8913936426553578E-2</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0.11236878955660938</v>
+      </c>
+      <c r="N4" s="4">
+        <v>4.2001136998557134E-2</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.15276654754719235</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0.56956119531094829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -593,8 +827,26 @@
       <c r="J5">
         <v>245</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="4">
+        <v>0.59663057394443042</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.16766435942990643</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.49877054793498282</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.87013728266318113</v>
+      </c>
+      <c r="O5" s="5">
+        <v>1.1143534081502533</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0.62416411566527852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -625,8 +877,26 @@
       <c r="J6">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="4">
+        <v>0.65031598376191102</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.37143128044131424</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.87052558152539328</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1.1170687188425008</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1.5051166806155276</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0.92648470093373747</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -657,8 +927,26 @@
       <c r="J7">
         <v>170</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="4">
+        <v>0.86697470953909361</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.70251167366491474</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.88994777319926432</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2.0914856498391412</v>
+      </c>
+      <c r="O7" s="5">
+        <v>2.1734869454178067</v>
+      </c>
+      <c r="P7" s="6">
+        <v>1.4778293189120806</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -689,8 +977,26 @@
       <c r="J8">
         <v>104</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="4">
+        <v>1.4665732302930587</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1.0354957574592849</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0.96846909248665081</v>
+      </c>
+      <c r="N8" s="4">
+        <v>2.6386971899655101</v>
+      </c>
+      <c r="O8" s="5">
+        <v>3.6454921057629446</v>
+      </c>
+      <c r="P8" s="6">
+        <v>2.0031664514485015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -721,8 +1027,26 @@
       <c r="J9">
         <v>98</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="4">
+        <v>1.4762266439039968</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1.0817035163128501</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1.3249693371200493</v>
+      </c>
+      <c r="N9" s="4">
+        <v>2.6749367756547282</v>
+      </c>
+      <c r="O9" s="5">
+        <v>6.7441525317528876</v>
+      </c>
+      <c r="P9" s="6">
+        <v>2.7983913740102202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -753,8 +1077,26 @@
       <c r="J10">
         <v>277</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="4">
+        <v>1.5267881051510293</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1.1195868155687005</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1.439614510821809</v>
+      </c>
+      <c r="N10" s="4">
+        <v>2.8366282647234646</v>
+      </c>
+      <c r="O10" s="5">
+        <v>6.8630751993352934</v>
+      </c>
+      <c r="P10" s="6">
+        <v>2.9448262973753159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -785,8 +1127,26 @@
       <c r="J11">
         <v>188</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="4">
+        <v>2.11893848585914</v>
+      </c>
+      <c r="L11" s="5">
+        <v>2.3269040870103095</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1.510537881901294</v>
+      </c>
+      <c r="N11" s="4">
+        <v>3.3672882674416185</v>
+      </c>
+      <c r="O11" s="5">
+        <v>7.6366049955525339</v>
+      </c>
+      <c r="P11" s="6">
+        <v>3.1217728528676445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -817,8 +1177,26 @@
       <c r="J12">
         <v>269</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="4">
+        <v>2.1857557532758061</v>
+      </c>
+      <c r="L12" s="5">
+        <v>2.9675866674153211</v>
+      </c>
+      <c r="M12" s="5">
+        <v>2.1821319887788886</v>
+      </c>
+      <c r="N12" s="4">
+        <v>3.7784657958763965</v>
+      </c>
+      <c r="O12" s="5">
+        <v>8.4462750300163787</v>
+      </c>
+      <c r="P12" s="6">
+        <v>3.1971852431656274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -849,8 +1227,26 @@
       <c r="J13">
         <v>201</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="4">
+        <v>2.2577121571557308</v>
+      </c>
+      <c r="L13" s="5">
+        <v>4.7022053360140372</v>
+      </c>
+      <c r="M13" s="5">
+        <v>2.2975943847183711</v>
+      </c>
+      <c r="N13" s="4">
+        <v>4.5378358896068329</v>
+      </c>
+      <c r="O13" s="5">
+        <v>9.7336952204632201</v>
+      </c>
+      <c r="P13" s="6">
+        <v>4.4419569327560939</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -881,8 +1277,26 @@
       <c r="J14">
         <v>77</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="4">
+        <v>4.1481248957271522</v>
+      </c>
+      <c r="L14" s="5">
+        <v>4.7821107966576326</v>
+      </c>
+      <c r="M14" s="5">
+        <v>2.6981363171271733</v>
+      </c>
+      <c r="N14" s="4">
+        <v>4.6406568845498484</v>
+      </c>
+      <c r="O14" s="5">
+        <v>11.777010913618392</v>
+      </c>
+      <c r="P14" s="6">
+        <v>4.5006208929700469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -913,8 +1327,26 @@
       <c r="J15">
         <v>158</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="4">
+        <v>5.5333177895148253</v>
+      </c>
+      <c r="L15" s="5">
+        <v>5.8492675487214161</v>
+      </c>
+      <c r="M15" s="5">
+        <v>2.7706203205687565</v>
+      </c>
+      <c r="N15" s="4">
+        <v>5.6019325789199845</v>
+      </c>
+      <c r="O15" s="5">
+        <v>12.850457444475841</v>
+      </c>
+      <c r="P15" s="6">
+        <v>5.0021162394957841</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -945,8 +1377,26 @@
       <c r="J16">
         <v>269</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="4">
+        <v>6.7512265775176861</v>
+      </c>
+      <c r="L16" s="5">
+        <v>6.0789071357288584</v>
+      </c>
+      <c r="M16" s="5">
+        <v>3.1479172754717006</v>
+      </c>
+      <c r="N16" s="4">
+        <v>5.7772840621240427</v>
+      </c>
+      <c r="O16" s="5">
+        <v>13.603098967988844</v>
+      </c>
+      <c r="P16" s="6">
+        <v>5.2968528041492533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -977,8 +1427,26 @@
       <c r="J17">
         <v>196</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="4">
+        <v>6.8595382628012551</v>
+      </c>
+      <c r="L17" s="5">
+        <v>7.4987158296769332</v>
+      </c>
+      <c r="M17" s="5">
+        <v>5.30159297701905</v>
+      </c>
+      <c r="N17" s="4">
+        <v>5.9548155928822286</v>
+      </c>
+      <c r="O17" s="5">
+        <v>14.92721761604813</v>
+      </c>
+      <c r="P17" s="6">
+        <v>5.3774356695255658</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1009,8 +1477,26 @@
       <c r="J18">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="4">
+        <v>8.7235335466257453</v>
+      </c>
+      <c r="L18" s="5">
+        <v>13.947788241220083</v>
+      </c>
+      <c r="M18" s="5">
+        <v>6.1520045758853072</v>
+      </c>
+      <c r="N18" s="4">
+        <v>6.3002372144479075</v>
+      </c>
+      <c r="O18" s="5">
+        <v>15.040917807716307</v>
+      </c>
+      <c r="P18" s="6">
+        <v>5.379837855430873</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1041,8 +1527,26 @@
       <c r="J19">
         <v>79</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="4">
+        <v>8.8025539436718692</v>
+      </c>
+      <c r="L19" s="5">
+        <v>15.823309608695068</v>
+      </c>
+      <c r="M19" s="5">
+        <v>6.5876068678417905</v>
+      </c>
+      <c r="N19" s="4">
+        <v>6.4831571162261366</v>
+      </c>
+      <c r="O19" s="5">
+        <v>16.266904936830858</v>
+      </c>
+      <c r="P19" s="6">
+        <v>5.9970273171991213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1073,8 +1577,26 @@
       <c r="J20">
         <v>105</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="4">
+        <v>9.8864398129527675</v>
+      </c>
+      <c r="L20" s="5">
+        <v>19.193910726495979</v>
+      </c>
+      <c r="M20" s="5">
+        <v>9.6558896939744248</v>
+      </c>
+      <c r="N20" s="4">
+        <v>7.121920741229113</v>
+      </c>
+      <c r="O20" s="5">
+        <v>26.850218913442959</v>
+      </c>
+      <c r="P20" s="6">
+        <v>6.0036761133651932</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1105,8 +1627,26 @@
       <c r="J21">
         <v>282</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="4">
+        <v>11.100744824653967</v>
+      </c>
+      <c r="L21" s="5">
+        <v>19.725007490683851</v>
+      </c>
+      <c r="M21" s="5">
+        <v>11.949769924916527</v>
+      </c>
+      <c r="N21" s="4">
+        <v>7.3669646001305233</v>
+      </c>
+      <c r="O21" s="5">
+        <v>28.802188365084636</v>
+      </c>
+      <c r="P21" s="6">
+        <v>6.0935393098826713</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1137,8 +1677,26 @@
       <c r="J22">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="4">
+        <v>14.634849017202061</v>
+      </c>
+      <c r="L22" s="5">
+        <v>25.437644708021917</v>
+      </c>
+      <c r="M22" s="5">
+        <v>12.578369937314005</v>
+      </c>
+      <c r="N22" s="4">
+        <v>7.7916684735842399</v>
+      </c>
+      <c r="O22" s="5">
+        <v>28.885960321232211</v>
+      </c>
+      <c r="P22" s="6">
+        <v>7.0311574064176252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1169,8 +1727,26 @@
       <c r="J23">
         <v>238</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="4">
+        <v>19.460176817687994</v>
+      </c>
+      <c r="L23" s="5">
+        <v>30.335032302456845</v>
+      </c>
+      <c r="M23" s="5">
+        <v>13.205728805332035</v>
+      </c>
+      <c r="N23" s="4">
+        <v>7.9186099747734664</v>
+      </c>
+      <c r="O23" s="5">
+        <v>33.797914857901795</v>
+      </c>
+      <c r="P23" s="6">
+        <v>7.6320777073751449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1201,8 +1777,26 @@
       <c r="J24">
         <v>101</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="4">
+        <v>19.613234971771806</v>
+      </c>
+      <c r="L24" s="5">
+        <v>35.230307917889675</v>
+      </c>
+      <c r="M24" s="5">
+        <v>13.531869635923881</v>
+      </c>
+      <c r="N24" s="4">
+        <v>8.1065323849411843</v>
+      </c>
+      <c r="O24" s="5">
+        <v>36.86506463309609</v>
+      </c>
+      <c r="P24" s="6">
+        <v>9.2689932699886466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1233,8 +1827,26 @@
       <c r="J25">
         <v>265</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="4">
+        <v>20.602055764092373</v>
+      </c>
+      <c r="L25" s="5">
+        <v>83.385237750153394</v>
+      </c>
+      <c r="M25" s="5">
+        <v>18.233769797257978</v>
+      </c>
+      <c r="N25" s="4">
+        <v>8.226194224286262</v>
+      </c>
+      <c r="O25" s="5">
+        <v>37.066499352877088</v>
+      </c>
+      <c r="P25" s="6">
+        <v>11.164298496294105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1265,8 +1877,26 @@
       <c r="J26">
         <v>292</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="4">
+        <v>26.959517548659214</v>
+      </c>
+      <c r="L26" s="5">
+        <v>92.84858875091156</v>
+      </c>
+      <c r="M26" s="5">
+        <v>19.123279833848272</v>
+      </c>
+      <c r="N26" s="4">
+        <v>12.740197755449223</v>
+      </c>
+      <c r="O26" s="5">
+        <v>39.50141652611908</v>
+      </c>
+      <c r="P26" s="6">
+        <v>12.462885287402552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1294,8 +1924,26 @@
       <c r="I27">
         <v>146</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="4">
+        <v>37.416218042486626</v>
+      </c>
+      <c r="L27" s="5">
+        <v>105.72846259900648</v>
+      </c>
+      <c r="M27" s="5">
+        <v>19.446790640653035</v>
+      </c>
+      <c r="N27" s="4">
+        <v>17.736868989859218</v>
+      </c>
+      <c r="O27" s="5">
+        <v>39.841611541626456</v>
+      </c>
+      <c r="P27" s="6">
+        <v>12.874399661001295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1323,8 +1971,26 @@
       <c r="I28">
         <v>110</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="4">
+        <v>42.450275918054075</v>
+      </c>
+      <c r="L28" s="5">
+        <v>123.44938106373215</v>
+      </c>
+      <c r="M28" s="5">
+        <v>19.638794192661486</v>
+      </c>
+      <c r="N28" s="4">
+        <v>20.138731510487549</v>
+      </c>
+      <c r="O28" s="5">
+        <v>41.315132712156228</v>
+      </c>
+      <c r="P28" s="6">
+        <v>13.123483212867123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1352,8 +2018,26 @@
       <c r="I29">
         <v>146</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" s="4">
+        <v>44.772964137090227</v>
+      </c>
+      <c r="L29" s="5">
+        <v>123.73369687045016</v>
+      </c>
+      <c r="M29" s="5">
+        <v>20.188901855634423</v>
+      </c>
+      <c r="N29" s="4">
+        <v>21.217277265136431</v>
+      </c>
+      <c r="O29" s="5">
+        <v>42.503739451602506</v>
+      </c>
+      <c r="P29" s="6">
+        <v>13.322418937521322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1381,8 +2065,26 @@
       <c r="I30">
         <v>232</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" s="4">
+        <v>50.550294577180622</v>
+      </c>
+      <c r="L30" s="5">
+        <v>127.22084052719993</v>
+      </c>
+      <c r="M30" s="5">
+        <v>22.397429647652803</v>
+      </c>
+      <c r="N30" s="4">
+        <v>24.65586957796376</v>
+      </c>
+      <c r="O30" s="5">
+        <v>42.913141459046237</v>
+      </c>
+      <c r="P30" s="6">
+        <v>15.2200722631998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1410,8 +2112,26 @@
       <c r="I31">
         <v>140</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" s="4">
+        <v>51.353263998506321</v>
+      </c>
+      <c r="L31" s="5">
+        <v>129.83683485320651</v>
+      </c>
+      <c r="M31" s="5">
+        <v>27.317976496803727</v>
+      </c>
+      <c r="N31" s="4">
+        <v>25.327823353223415</v>
+      </c>
+      <c r="O31" s="5">
+        <v>53.42394540832808</v>
+      </c>
+      <c r="P31" s="6">
+        <v>19.322017092299347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1439,8 +2159,26 @@
       <c r="I32">
         <v>134.19230769230799</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K32" s="4">
+        <v>56.792803082340662</v>
+      </c>
+      <c r="L32" s="5">
+        <v>135.01561142715363</v>
+      </c>
+      <c r="M32" s="5">
+        <v>27.467471630182505</v>
+      </c>
+      <c r="N32" s="4">
+        <v>31.176751720466726</v>
+      </c>
+      <c r="O32" s="5">
+        <v>60.203554551347146</v>
+      </c>
+      <c r="P32" s="6">
+        <v>24.329765035434249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1468,8 +2206,26 @@
       <c r="I33">
         <v>128.74725274725299</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K33" s="4">
+        <v>56.96563192077388</v>
+      </c>
+      <c r="L33" s="5">
+        <v>137.80119627492485</v>
+      </c>
+      <c r="M33" s="5">
+        <v>31.375586775542072</v>
+      </c>
+      <c r="N33" s="4">
+        <v>33.585847801910042</v>
+      </c>
+      <c r="O33" s="5">
+        <v>66.788937493401434</v>
+      </c>
+      <c r="P33" s="6">
+        <v>25.314337981100525</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1497,8 +2253,26 @@
       <c r="I34">
         <v>123.30219780219799</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K34" s="4">
+        <v>72.413488458021149</v>
+      </c>
+      <c r="L34" s="5">
+        <v>140.81172388885477</v>
+      </c>
+      <c r="M34" s="5">
+        <v>35.011927602021224</v>
+      </c>
+      <c r="N34" s="4">
+        <v>34.476379985419989</v>
+      </c>
+      <c r="O34" s="5">
+        <v>91.176396469013881</v>
+      </c>
+      <c r="P34" s="6">
+        <v>29.860765328299671</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1526,8 +2300,26 @@
       <c r="I35">
         <v>117.857142857143</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K35" s="4">
+        <v>75.041388878498182</v>
+      </c>
+      <c r="L35" s="5">
+        <v>159.23569728209196</v>
+      </c>
+      <c r="M35" s="5">
+        <v>42.049832947341734</v>
+      </c>
+      <c r="N35" s="4">
+        <v>35.257570599214532</v>
+      </c>
+      <c r="O35" s="5">
+        <v>92.172962312251812</v>
+      </c>
+      <c r="P35" s="6">
+        <v>30.223140967175496</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1555,8 +2347,26 @@
       <c r="I36">
         <v>112.412087912088</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K36" s="4">
+        <v>79.4993566212774</v>
+      </c>
+      <c r="L36" s="5">
+        <v>186.03037321852997</v>
+      </c>
+      <c r="M36" s="5">
+        <v>63.448171089862043</v>
+      </c>
+      <c r="N36" s="4">
+        <v>43.54575097070488</v>
+      </c>
+      <c r="O36" s="5">
+        <v>96.26647438470458</v>
+      </c>
+      <c r="P36" s="6">
+        <v>30.296329261856588</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1584,8 +2394,26 @@
       <c r="I37">
         <v>106.96703296703301</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K37" s="4">
+        <v>88.52987092666848</v>
+      </c>
+      <c r="L37" s="5">
+        <v>198.34221997567536</v>
+      </c>
+      <c r="M37" s="5">
+        <v>67.586159718146192</v>
+      </c>
+      <c r="N37" s="4">
+        <v>45.086240237637632</v>
+      </c>
+      <c r="O37" s="5">
+        <v>107.23594641224375</v>
+      </c>
+      <c r="P37" s="6">
+        <v>33.915403565821251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1613,8 +2441,26 @@
       <c r="I38">
         <v>101.521978021978</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K38" s="4">
+        <v>96.417135066388497</v>
+      </c>
+      <c r="L38" s="5">
+        <v>202.95842352467673</v>
+      </c>
+      <c r="M38" s="5">
+        <v>95.215074488743895</v>
+      </c>
+      <c r="N38" s="4">
+        <v>46.662717301605198</v>
+      </c>
+      <c r="O38" s="5">
+        <v>132.98586373663213</v>
+      </c>
+      <c r="P38" s="6">
+        <v>36.206718416946742</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1642,8 +2488,26 @@
       <c r="I39">
         <v>96.076923076922995</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K39" s="4">
+        <v>102.90853540306749</v>
+      </c>
+      <c r="L39" s="5">
+        <v>298.62423171655303</v>
+      </c>
+      <c r="M39" s="5">
+        <v>100.2673690141703</v>
+      </c>
+      <c r="N39" s="4">
+        <v>56.901092251304327</v>
+      </c>
+      <c r="O39" s="5">
+        <v>146.39713478679997</v>
+      </c>
+      <c r="P39" s="6">
+        <v>51.384946771498733</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1671,8 +2535,26 @@
       <c r="I40">
         <v>90.631868131868004</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K40" s="4">
+        <v>114.56197572323268</v>
+      </c>
+      <c r="L40" s="5">
+        <v>342.73798624474688</v>
+      </c>
+      <c r="M40" s="5">
+        <v>103.31960718411791</v>
+      </c>
+      <c r="N40" s="4">
+        <v>63.281325360413668</v>
+      </c>
+      <c r="O40" s="5">
+        <v>151.0575158943044</v>
+      </c>
+      <c r="P40" s="6">
+        <v>52.631596552680136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1697,8 +2579,26 @@
       <c r="I41">
         <v>85.186813186812998</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K41" s="4">
+        <v>122.41854151101916</v>
+      </c>
+      <c r="L41" s="5">
+        <v>381.12267233148515</v>
+      </c>
+      <c r="M41" s="5">
+        <v>107.26708265983498</v>
+      </c>
+      <c r="N41" s="4">
+        <v>77.052402116995125</v>
+      </c>
+      <c r="O41" s="5">
+        <v>185.62026200916901</v>
+      </c>
+      <c r="P41" s="6">
+        <v>52.751735561039141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1720,8 +2620,26 @@
       <c r="I42">
         <v>79.741758241758006</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K42" s="4">
+        <v>165.70684635729791</v>
+      </c>
+      <c r="L42" s="5">
+        <v>608.68858137145776</v>
+      </c>
+      <c r="M42" s="5">
+        <v>117.51841969425932</v>
+      </c>
+      <c r="N42" s="4">
+        <v>79.920394662749516</v>
+      </c>
+      <c r="O42" s="5">
+        <v>201.66449807336593</v>
+      </c>
+      <c r="P42" s="6">
+        <v>54.277098322255512</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1743,8 +2661,26 @@
       <c r="I43">
         <v>74.296703296703001</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K43" s="4">
+        <v>180.73153762362057</v>
+      </c>
+      <c r="L43" s="5">
+        <v>844.90928664492617</v>
+      </c>
+      <c r="M43" s="5">
+        <v>119.12465028031667</v>
+      </c>
+      <c r="N43" s="4">
+        <v>93.559845114781751</v>
+      </c>
+      <c r="O43" s="5">
+        <v>316.14001887173265</v>
+      </c>
+      <c r="P43" s="6">
+        <v>60.709467323542817</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1766,8 +2702,22 @@
       <c r="I44">
         <v>68.851648351647995</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K44" s="4">
+        <v>298.66554311093779</v>
+      </c>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5">
+        <v>160.04421024020195</v>
+      </c>
+      <c r="N44" s="4">
+        <v>94.438845683399563</v>
+      </c>
+      <c r="O44" s="5"/>
+      <c r="P44" s="6">
+        <v>61.773075447411273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1789,8 +2739,22 @@
       <c r="I45">
         <v>63.406593406592997</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K45" s="4">
+        <v>336.6595419809982</v>
+      </c>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5">
+        <v>188.5874063270544</v>
+      </c>
+      <c r="N45" s="4">
+        <v>100.64283505927327</v>
+      </c>
+      <c r="O45" s="5"/>
+      <c r="P45" s="6">
+        <v>62.424598309507232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1809,8 +2773,22 @@
       <c r="H46">
         <v>75.177777777777806</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K46" s="4">
+        <v>388.51835284303758</v>
+      </c>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5">
+        <v>190.23487368132663</v>
+      </c>
+      <c r="N46" s="4">
+        <v>150.89974018308027</v>
+      </c>
+      <c r="O46" s="5"/>
+      <c r="P46" s="6">
+        <v>83.796982052977043</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1826,8 +2804,22 @@
       <c r="F47">
         <v>130.38901098901101</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K47" s="4">
+        <v>479.58370643858677</v>
+      </c>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5">
+        <v>210.16479431196714</v>
+      </c>
+      <c r="N47" s="4">
+        <v>219.43908950096608</v>
+      </c>
+      <c r="O47" s="5"/>
+      <c r="P47" s="6">
+        <v>89.553143686826019</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1840,17 +2832,126 @@
       <c r="E48">
         <v>111.60949074074099</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K48" s="4">
+        <v>893.45012958352243</v>
+      </c>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5">
+        <v>237.71942909673473</v>
+      </c>
+      <c r="N48" s="4">
+        <v>298.70810866069871</v>
+      </c>
+      <c r="O48" s="5"/>
+      <c r="P48" s="6">
+        <v>102.10395712853862</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="C49">
         <v>106.392857142857</v>
+      </c>
+      <c r="K49" s="7">
+        <v>1524.6819752394792</v>
+      </c>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8">
+        <v>240.67958789764452</v>
+      </c>
+      <c r="N49" s="4">
+        <v>387.95192913423659</v>
+      </c>
+      <c r="O49" s="5"/>
+      <c r="P49" s="6">
+        <v>119.52103013957409</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M50">
+        <v>244.55853288931365</v>
+      </c>
+      <c r="N50" s="4"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="6">
+        <v>121.17492787208876</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M51">
+        <v>248.06736423211009</v>
+      </c>
+      <c r="N51" s="4"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="6">
+        <v>121.4086818600436</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M52">
+        <v>251.61969279207054</v>
+      </c>
+      <c r="N52" s="4"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="6">
+        <v>135.5698062311655</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M53">
+        <v>266.51548030950499</v>
+      </c>
+      <c r="N53" s="4"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="6">
+        <v>158.55413576416251</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M54">
+        <v>298.65634608393833</v>
+      </c>
+      <c r="N54" s="4"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="6">
+        <v>164.85419666555632</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M55">
+        <v>319.54972891235514</v>
+      </c>
+      <c r="N55" s="4"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="6">
+        <v>191.8497006107882</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M56">
+        <v>320.47076383499274</v>
+      </c>
+      <c r="N56" s="4"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="6">
+        <v>396.20370270119423</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M57">
+        <v>936.68012700233112</v>
+      </c>
+      <c r="N57" s="7"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="9">
+        <v>511.66968010420516</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>